--- a/teaching/traditional_assets/database/data/france/france_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_insurance_life.xlsx
@@ -591,28 +591,31 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0219</v>
+        <v>-0.0117</v>
       </c>
       <c r="E2">
-        <v>0.0568</v>
+        <v>0.0383</v>
+      </c>
+      <c r="F2">
+        <v>0.0275</v>
       </c>
       <c r="G2">
-        <v>0.07065464934921534</v>
+        <v>0.06510033964864353</v>
       </c>
       <c r="H2">
-        <v>0.07065464934921534</v>
+        <v>0.06510033964864353</v>
       </c>
       <c r="I2">
-        <v>0.06836344563912163</v>
+        <v>0.05826671463619382</v>
       </c>
       <c r="J2">
-        <v>0.04761486214875125</v>
+        <v>0.04065616292975397</v>
       </c>
       <c r="K2">
-        <v>1525.1</v>
+        <v>1576.7</v>
       </c>
       <c r="L2">
-        <v>0.03508348170947721</v>
+        <v>0.03204811587486458</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -642,67 +645,67 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.07204845117797398</v>
+        <v>0.07626413597624092</v>
       </c>
       <c r="X2">
-        <v>0.1357191809764343</v>
+        <v>0.1332976006534351</v>
       </c>
       <c r="Y2">
-        <v>-0.06367072979846036</v>
+        <v>-0.05703346467719418</v>
       </c>
       <c r="Z2">
-        <v>1.106313560616086</v>
+        <v>1.162221922992424</v>
       </c>
       <c r="AA2">
-        <v>0.0526769676820291</v>
+        <v>0.04725148386171196</v>
       </c>
       <c r="AB2">
-        <v>0.06691620649729543</v>
+        <v>0.05611052168252498</v>
       </c>
       <c r="AC2">
-        <v>-0.01423923881526633</v>
+        <v>-0.008859037820813022</v>
       </c>
       <c r="AD2">
-        <v>21656.7</v>
+        <v>22602.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>21656.7</v>
+        <v>22602.2</v>
       </c>
       <c r="AG2">
-        <v>21656.7</v>
+        <v>22602.2</v>
       </c>
       <c r="AH2">
-        <v>0.6133183425987024</v>
+        <v>0.6714714786085851</v>
       </c>
       <c r="AI2">
-        <v>0.4895563482483148</v>
+        <v>0.4848135151135554</v>
       </c>
       <c r="AJ2">
-        <v>0.6133183425987024</v>
+        <v>0.6714714786085851</v>
       </c>
       <c r="AK2">
-        <v>0.4895563482483148</v>
+        <v>0.4848135151135554</v>
       </c>
       <c r="AL2">
-        <v>292</v>
+        <v>315.4</v>
       </c>
       <c r="AM2">
-        <v>292</v>
+        <v>315.4</v>
       </c>
       <c r="AN2">
-        <v>7.142004419087821</v>
+        <v>7.614783370392831</v>
       </c>
       <c r="AO2">
-        <v>10.17739726027397</v>
+        <v>9.088776157260622</v>
       </c>
       <c r="AP2">
-        <v>7.142004419087821</v>
+        <v>7.614783370392831</v>
       </c>
       <c r="AQ2">
-        <v>10.17739726027397</v>
+        <v>9.088776157260622</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +725,31 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0219</v>
+        <v>-0.0117</v>
       </c>
       <c r="E3">
-        <v>0.0568</v>
+        <v>0.0383</v>
+      </c>
+      <c r="F3">
+        <v>0.0275</v>
       </c>
       <c r="G3">
-        <v>0.07065464934921534</v>
+        <v>0.06510033964864353</v>
       </c>
       <c r="H3">
-        <v>0.07065464934921534</v>
+        <v>0.06510033964864353</v>
       </c>
       <c r="I3">
-        <v>0.06836344563912163</v>
+        <v>0.05826671463619382</v>
       </c>
       <c r="J3">
-        <v>0.04761486214875125</v>
+        <v>0.04065616292975397</v>
       </c>
       <c r="K3">
-        <v>1525.1</v>
+        <v>1576.7</v>
       </c>
       <c r="L3">
-        <v>0.03508348170947721</v>
+        <v>0.03204811587486458</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -773,67 +779,67 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.07204845117797398</v>
+        <v>0.07626413597624092</v>
       </c>
       <c r="X3">
-        <v>0.1357191809764343</v>
+        <v>0.1332976006534351</v>
       </c>
       <c r="Y3">
-        <v>-0.06367072979846036</v>
+        <v>-0.05703346467719418</v>
       </c>
       <c r="Z3">
-        <v>1.106313560616086</v>
+        <v>1.162221922992424</v>
       </c>
       <c r="AA3">
-        <v>0.0526769676820291</v>
+        <v>0.04725148386171196</v>
       </c>
       <c r="AB3">
-        <v>0.06691620649729543</v>
+        <v>0.05611052168252498</v>
       </c>
       <c r="AC3">
-        <v>-0.01423923881526633</v>
+        <v>-0.008859037820813022</v>
       </c>
       <c r="AD3">
-        <v>21656.7</v>
+        <v>22602.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>21656.7</v>
+        <v>22602.2</v>
       </c>
       <c r="AG3">
-        <v>21656.7</v>
+        <v>22602.2</v>
       </c>
       <c r="AH3">
-        <v>0.6133183425987024</v>
+        <v>0.6714714786085851</v>
       </c>
       <c r="AI3">
-        <v>0.4895563482483148</v>
+        <v>0.4848135151135554</v>
       </c>
       <c r="AJ3">
-        <v>0.6133183425987024</v>
+        <v>0.6714714786085851</v>
       </c>
       <c r="AK3">
-        <v>0.4895563482483148</v>
+        <v>0.4848135151135554</v>
       </c>
       <c r="AL3">
-        <v>292</v>
+        <v>315.4</v>
       </c>
       <c r="AM3">
-        <v>292</v>
+        <v>315.4</v>
       </c>
       <c r="AN3">
-        <v>7.142004419087821</v>
+        <v>7.614783370392831</v>
       </c>
       <c r="AO3">
-        <v>10.17739726027397</v>
+        <v>9.088776157260622</v>
       </c>
       <c r="AP3">
-        <v>7.142004419087821</v>
+        <v>7.614783370392831</v>
       </c>
       <c r="AQ3">
-        <v>10.17739726027397</v>
+        <v>9.088776157260622</v>
       </c>
     </row>
   </sheetData>
